--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:07:51+00:00</t>
+    <t>2025-10-22T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -437,7 +437,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -488,7 +488,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -512,7 +512,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -555,7 +555,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -827,7 +827,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period|5.3.0-ballot-tc1}
+    <t xml:space="preserve">Extension {organization-period|5.2.0}
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1308,7 +1308,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1375,7 +1375,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -5150,7 +5150,7 @@
         <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>117</v>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-22T14:21:04+00:00</t>
+    <t>2025-11-06T10:11:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T10:11:54+00:00</t>
+    <t>2025-11-07T16:50:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:50:39+00:00</t>
+    <t>2025-11-07T17:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:06:48+00:00</t>
+    <t>2025-11-07T17:36:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T17:36:51+00:00</t>
+    <t>2025-11-29T07:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-29T07:55:08+00:00</t>
+    <t>2025-12-05T17:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-05T17:11:23+00:00</t>
+    <t>2025-12-09T22:51:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -115,7 +115,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,6 +466,9 @@
     <t>fr-canonical</t>
   </si>
   <si>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf|2.2.0-ballot</t>
+  </si>
+  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -631,7 +634,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -653,7 +656,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -670,7 +673,7 @@
     <t>budgetLetter</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -687,7 +690,7 @@
     <t>equipmentField</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -705,7 +708,7 @@
     <t>activityField</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -722,7 +725,7 @@
     <t>external</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -740,7 +743,7 @@
     <t>accomodationSpace</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -758,7 +761,7 @@
     <t>applicantAct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -775,7 +778,7 @@
     <t>executantAct</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -793,7 +796,7 @@
     <t>analysisSection</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -810,7 +813,7 @@
     <t>activityType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -906,7 +909,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -934,7 +937,7 @@
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -1105,7 +1108,7 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1232,7 +1235,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1717,7 +1720,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="94.6640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="104.171875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1732,7 +1735,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -2940,7 +2943,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>3</v>
+        <v>145</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3008,10 +3011,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3034,16 +3037,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3069,13 +3072,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3093,7 +3096,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3122,10 +3125,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3148,16 +3151,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3183,13 +3186,13 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>78</v>
@@ -3207,7 +3210,7 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3236,10 +3239,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3265,13 +3268,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3321,7 +3324,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3350,10 +3353,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3376,16 +3379,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3411,13 +3414,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3435,7 +3438,7 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3464,14 +3467,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3490,16 +3493,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3549,7 +3552,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3567,7 +3570,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3578,14 +3581,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3604,16 +3607,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3663,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3681,7 +3684,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3721,10 +3724,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3773,7 +3776,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3802,13 +3805,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3830,13 +3833,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3887,7 +3890,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3896,7 +3899,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3916,13 +3919,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3944,13 +3947,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4001,7 +4004,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4010,7 +4013,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4030,13 +4033,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4058,13 +4061,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4115,7 +4118,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4124,7 +4127,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -4144,13 +4147,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4172,13 +4175,13 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4229,7 +4232,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4238,7 +4241,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>117</v>
@@ -4258,13 +4261,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4286,13 +4289,13 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4343,7 +4346,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4352,7 +4355,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>117</v>
@@ -4372,13 +4375,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
@@ -4400,13 +4403,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4457,7 +4460,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4466,7 +4469,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>117</v>
@@ -4486,13 +4489,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -4514,13 +4517,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4571,7 +4574,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4580,7 +4583,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4600,13 +4603,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -4628,13 +4631,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4685,7 +4688,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4694,7 +4697,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>117</v>
@@ -4714,13 +4717,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4742,13 +4745,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4799,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4808,7 +4811,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -4828,13 +4831,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -4856,13 +4859,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4913,7 +4916,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4922,7 +4925,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>117</v>
@@ -4942,13 +4945,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -4970,13 +4973,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5027,7 +5030,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5036,7 +5039,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>117</v>
@@ -5056,13 +5059,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
@@ -5084,13 +5087,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5141,7 +5144,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5170,10 +5173,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5199,16 +5202,16 @@
         <v>109</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N31" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5257,7 +5260,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5275,7 +5278,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5286,10 +5289,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5312,17 +5315,17 @@
         <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5371,7 +5374,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5380,30 +5383,30 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5512,10 +5515,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5626,10 +5629,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5652,19 +5655,19 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5689,11 +5692,11 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -5711,7 +5714,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5726,10 +5729,10 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5740,10 +5743,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5766,19 +5769,19 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5803,11 +5806,11 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
@@ -5825,7 +5828,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5840,10 +5843,10 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5854,10 +5857,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5883,16 +5886,16 @@
         <v>130</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5905,7 +5908,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5941,7 +5944,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5956,13 +5959,13 @@
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5970,10 +5973,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5999,13 +6002,13 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6019,7 +6022,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6055,7 +6058,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6070,13 +6073,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6084,10 +6087,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6110,13 +6113,13 @@
         <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6167,7 +6170,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6182,13 +6185,13 @@
         <v>100</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6196,10 +6199,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6222,16 +6225,16 @@
         <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6281,7 +6284,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6296,13 +6299,13 @@
         <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6310,10 +6313,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6336,70 +6339,70 @@
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="P41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6414,24 +6417,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6454,19 +6457,19 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6491,11 +6494,11 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y42" s="2"/>
       <c r="Z42" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6513,7 +6516,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6528,24 +6531,24 @@
         <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6571,16 +6574,16 @@
         <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -6629,7 +6632,7 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -6638,19 +6641,19 @@
         <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6658,10 +6661,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6687,16 +6690,16 @@
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6745,7 +6748,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -6763,7 +6766,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6774,10 +6777,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6800,19 +6803,19 @@
         <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
@@ -6861,7 +6864,7 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -6870,19 +6873,19 @@
         <v>80</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6890,10 +6893,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6916,19 +6919,19 @@
         <v>78</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -6977,7 +6980,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -6986,19 +6989,19 @@
         <v>80</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7006,10 +7009,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7032,17 +7035,17 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7091,7 +7094,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7106,10 +7109,10 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>106</v>
@@ -7120,10 +7123,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7146,19 +7149,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7207,7 +7210,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7225,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7236,10 +7239,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7348,10 +7351,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7462,14 +7465,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7491,16 +7494,16 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7549,7 +7552,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7567,7 +7570,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7578,10 +7581,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7604,17 +7607,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7639,13 +7642,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7663,7 +7666,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7681,7 +7684,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7692,10 +7695,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7718,17 +7721,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7777,7 +7780,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7792,10 +7795,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7806,10 +7809,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7832,17 +7835,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7891,7 +7894,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7906,10 +7909,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7920,10 +7923,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7946,17 +7949,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8005,7 +8008,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8020,10 +8023,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8034,10 +8037,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8060,17 +8063,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8119,7 +8122,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-09T22:51:13+00:00</t>
+    <t>2025-12-17T08:23:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-19T17:17:04+00:00</t>
+    <t>2025-12-29T08:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-29T08:10:54+00:00</t>
+    <t>2026-01-09T10:08:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-09T10:08:27+00:00</t>
+    <t>2026-01-12T10:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-12T10:02:26+00:00</t>
+    <t>2026-01-21T08:47:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T08:47:55+00:00</t>
+    <t>2026-01-28T09:35:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="410">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T09:35:28+00:00</t>
+    <t>2026-01-28T10:29:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>This profile specializes the fr-core-organization profile to represent wards inside healthcare institutions.
-Ce profil spécialise le profil fr-core-organization pour représenter les unités fonctionnelles en établissement</t>
+    <t>Profil de la ressource Organization permettant de représenter les unités fonctionnelles en établissement.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Organization|4.0.1</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -466,9 +465,6 @@
     <t>fr-canonical</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf|2.2.0-ballot</t>
-  </si>
-  <si>
     <t>Organization.meta.security</t>
   </si>
   <si>
@@ -641,9 +637,7 @@
     <t>FR Core Organization Short Name Extension</t>
   </si>
   <si>
-    <t>Libellé court de l'organisation
--The Organization short name</t>
+    <t>Libellé court de l'organisation</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -656,172 +650,14 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.2.0-ballot}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-Organization.description}
 </t>
   </si>
   <si>
-    <t>FR Core Organization Description Extension</t>
-  </si>
-  <si>
-    <t>Description textuelle d'une organisation
-Organization description</t>
-  </si>
-  <si>
-    <t>Organization.extension:budgetLetter</t>
-  </si>
-  <si>
-    <t>budgetLetter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-budget-letter|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Budget Letter Extension</t>
-  </si>
-  <si>
-    <t>Lettre budgétaire de l'UF
-An organization budget letter</t>
-  </si>
-  <si>
-    <t>Organization.extension:equipmentField</t>
-  </si>
-  <si>
-    <t>equipmentField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-field|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Field Extension</t>
-  </si>
-  <si>
-    <t>Discipline d'équipement
--Equipment field</t>
-  </si>
-  <si>
-    <t>Organization.extension:activityField</t>
-  </si>
-  <si>
-    <t>activityField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-field|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Activity Field Extension</t>
-  </si>
-  <si>
-    <t>Champ d'activité d'une UF.
-Activity field of an organization</t>
-  </si>
-  <si>
-    <t>Organization.extension:external</t>
-  </si>
-  <si>
-    <t>external</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-external|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization External Extension</t>
-  </si>
-  <si>
-    <t>UF externe à l'établissement.
--External ward of the facility</t>
-  </si>
-  <si>
-    <t>Organization.extension:accomodationSpace</t>
-  </si>
-  <si>
-    <t>accomodationSpace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-number-of-theorical-accomadation-space|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Total Number Of Theorical Accomodation Space Extension</t>
-  </si>
-  <si>
-    <t>Nombre total de places d'hébergement théoriques
--Total number of theorical accomodation space</t>
-  </si>
-  <si>
-    <t>Organization.extension:applicantAct</t>
-  </si>
-  <si>
-    <t>applicantAct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-applicant-act|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Applicant Act Extension</t>
-  </si>
-  <si>
-    <t>UF demandeuse d'actes
-An organization that asks soma acts</t>
-  </si>
-  <si>
-    <t>Organization.extension:executantAct</t>
-  </si>
-  <si>
-    <t>executantAct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executant|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Executant Extension</t>
-  </si>
-  <si>
-    <t>Une UF exécutante d'actes
--An executant act organization</t>
-  </si>
-  <si>
-    <t>Organization.extension:analysisSection</t>
-  </si>
-  <si>
-    <t>analysisSection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-analysis-section|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Analysis Section Extension</t>
-  </si>
-  <si>
-    <t>Section d'analyse d'une UF.
-An oraganization analysis section</t>
-  </si>
-  <si>
-    <t>Organization.extension:activityType</t>
-  </si>
-  <si>
-    <t>activityType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-activity-type|2.2.0-ballot}
-</t>
-  </si>
-  <si>
-    <t>FR Core Organization Activity Type Extension</t>
-  </si>
-  <si>
-    <t>Type d'activité d'une UF
-An organization activity type</t>
+    <t>Optional Extensions Element</t>
+  </si>
+  <si>
+    <t>Optional Extension Element - found in all resources.</t>
   </si>
   <si>
     <t>Organization.extension:usePeriod</t>
@@ -837,6 +673,172 @@
     <t>The date range that this organization should be considered available.</t>
   </si>
   <si>
+    <t>Organization.extension:openReason</t>
+  </si>
+  <si>
+    <t>openReason</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {note|5.2.0}
+</t>
+  </si>
+  <si>
+    <t>Additional notes that apply to this resource or element.</t>
+  </si>
+  <si>
+    <t>This extension SHALL NOT be used if the resource already has standard 'note' element (or equivalent) of type Annotation on the same element</t>
+  </si>
+  <si>
+    <t>Organization.extension:closureReason</t>
+  </si>
+  <si>
+    <t>closureReason</t>
+  </si>
+  <si>
+    <t>Organization.extension:members</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Membre d'organisation</t>
+  </si>
+  <si>
+    <t>Extension permettant de définir des membres d'une organisation.</t>
+  </si>
+  <si>
+    <t>Organization.extension:discplineEquipement</t>
+  </si>
+  <si>
+    <t>discplineEquipement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Discipline d'équipement</t>
+  </si>
+  <si>
+    <t>Discipline d'équipement</t>
+  </si>
+  <si>
+    <t>Organization.extension:typeActivite</t>
+  </si>
+  <si>
+    <t>typeActivite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Type d'activité</t>
+  </si>
+  <si>
+    <t>Type d'activité d'une UF</t>
+  </si>
+  <si>
+    <t>Organization.extension:champActivite</t>
+  </si>
+  <si>
+    <t>champActivite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Champ d'activité</t>
+  </si>
+  <si>
+    <t>Champ d'activité d'une UF</t>
+  </si>
+  <si>
+    <t>Organization.extension:placeHebergement</t>
+  </si>
+  <si>
+    <t>placeHebergement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Nombre total de places d'hébergement théoriques</t>
+  </si>
+  <si>
+    <t>Nombre total de places d'hébergement théoriques</t>
+  </si>
+  <si>
+    <t>Organization.extension:externe</t>
+  </si>
+  <si>
+    <t>externe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - UF Externe</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF est externe à l'établissement</t>
+  </si>
+  <si>
+    <t>Organization.extension:indicateur</t>
+  </si>
+  <si>
+    <t>indicateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Indicateur d'une unité fonctionnelle</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF est d'hébergement, médicale, administrative ou de magasin.</t>
+  </si>
+  <si>
+    <t>Organization.extension:demandeuseActe</t>
+  </si>
+  <si>
+    <t>demandeuseActe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Demandeuse d'acte</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF peut demander des actes</t>
+  </si>
+  <si>
+    <t>Organization.extension:executanteActe</t>
+  </si>
+  <si>
+    <t>executanteActe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte|2.2.0-ballot}
+</t>
+  </si>
+  <si>
+    <t>FR Core Organization Extension - Exécutante d'acte</t>
+  </si>
+  <si>
+    <t>Indicateur permettant de définir si une UF peut exécuter des actes</t>
+  </si>
+  <si>
     <t>Organization.modifierExtension</t>
   </si>
   <si>
@@ -885,213 +887,46 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Organization.identifier.id</t>
-  </si>
-  <si>
-    <t>Organization.identifier.extension</t>
-  </si>
-  <si>
-    <t>Organization.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>Organization.identifier.type</t>
+    <t>Organization.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use</t>
+  </si>
+  <si>
+    <t>Whether the organization's record is still in active use.</t>
+  </si>
+  <si>
+    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
+This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
+  </si>
+  <si>
+    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>No equivalent in HL7 v2</t>
+  </si>
+  <si>
+    <t>.status</t>
+  </si>
+  <si>
+    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>Organization.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-identifier-type|2.2.0-ballot</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>Organization.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>./IdentifierType</t>
-  </si>
-  <si>
-    <t>Organization.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>./Value</t>
-  </si>
-  <si>
-    <t>Organization.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>./StartDate and ./EndDate</t>
-  </si>
-  <si>
-    <t>Organization.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>./IdentifierIssuingAuthority</t>
-  </si>
-  <si>
-    <t>Organization.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use</t>
-  </si>
-  <si>
-    <t>Whether the organization's record is still in active use.</t>
-  </si>
-  <si>
-    <t>This active flag is not intended to be used to mark an organization as temporarily closed or under construction. Instead the Location(s) within the Organization should have the suspended status. If further details of the reason for the suspension are required, then an extension on this element should be used.
-This element is labeled as a modifier because it may be used to mark that the resource was created in error.</t>
-  </si>
-  <si>
-    <t>Need a flag to indicate a record is no longer to be used and should generally be hidden for the user in the UI.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>No equivalent in HL7 v2</t>
-  </si>
-  <si>
-    <t>.status</t>
-  </si>
-  <si>
-    <t>./Status (however this concept in ServD more covers why the organization is active or not, could be delisted, deregistered, not operational yet) this could alternatively be derived from ./StartDate and ./EndDate and given a context date.</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>Organization.type</t>
   </si>
   <si>
     <t>Kind of organization</t>
@@ -1108,6 +943,14 @@
     <t>Need to be able to track the kind of organization that this is - different organization types have different uses.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://hl7.fr/ig/fhir/core/CodeSystem/fr-core-cs-v2-3307"/&gt;
+    &lt;code value="UF"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
   </si>
   <si>
@@ -1163,7 +1006,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1199,7 +1042,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
 </t>
   </si>
   <si>
@@ -1235,7 +1078,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
 </t>
   </si>
   <si>
@@ -1249,6 +1092,83 @@
   </si>
   <si>
     <t>.playedBy[classCode=Part].scoper</t>
+  </si>
+  <si>
+    <t>Organization.partOf.id</t>
+  </si>
+  <si>
+    <t>Organization.partOf.extension</t>
+  </si>
+  <si>
+    <t>Organization.partOf.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Organization.partOf.type</t>
+  </si>
+  <si>
+    <t>Type the reference refers to (e.g. "Patient")</t>
+  </si>
+  <si>
+    <t>The expected type of the target of the reference. If both Reference.type and Reference.reference are populated and Reference.reference is a FHIR URL, both SHALL be consistent.
+The type is the Canonical URL of Resource Definition that is the type this reference refers to. References are URLs that are relative to http://hl7.org/fhir/StructureDefinition/ e.g. "Patient" is a reference to http://hl7.org/fhir/StructureDefinition/Patient. Absolute URLs are only allowed for logical models (and can only be used in references in logical models, not resources).</t>
+  </si>
+  <si>
+    <t>This element is used to indicate the type of  the target of the reference. This may be used which ever of the other elements are populated (or not). In some cases, the type of the target may be determined by inspection of the reference (e.g. a RESTful URL) or by resolving the target of the reference; if both the type and a reference is provided, the reference SHALL resolve to a resource of the same type as that specified.</t>
+  </si>
+  <si>
+    <t>Reference.type</t>
+  </si>
+  <si>
+    <t>Organization.partOf.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the target resource. This is used when there is no way to reference the other resource directly, either because the entity it represents is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.
+Reference is intended to point to a structure that can potentially be expressed as a FHIR resource, though there is no need for it to exist as an actual FHIR resource instance - except in as much as an application wishes to actual find the target of the reference. The content referred to be the identifier must meet the logical constraints implied by any limitations on what resource types are permitted for the reference.  For example, it would not be legitimate to send the identifier for a drug prescription if the type were Reference(Observation|DiagnosticReport).  One of the use-cases for Reference.identifier is the situation where no FHIR representation exists (where the type is Reference (Any).</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Organization.partOf.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
   </si>
   <si>
     <t>Organization.contact</t>
@@ -1710,9 +1630,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="36.140625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="32.09765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.80078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="17.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
@@ -1720,7 +1640,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="104.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1729,13 +1649,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.9296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="59.30859375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
@@ -1746,7 +1666,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="43.6953125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="187.0625" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
@@ -2943,7 +2863,7 @@
         <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>145</v>
+        <v>33</v>
       </c>
       <c r="T11" t="s" s="2">
         <v>78</v>
@@ -3011,10 +2931,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3037,16 +2957,16 @@
         <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3072,31 +2992,31 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="AA12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3125,10 +3045,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3151,16 +3071,16 @@
         <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3186,31 +3106,31 @@
         <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3239,10 +3159,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3268,13 +3188,13 @@
         <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3324,7 +3244,7 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
@@ -3353,10 +3273,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3379,16 +3299,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3414,31 +3334,31 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="Z15" t="s" s="2">
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>175</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>176</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -3467,14 +3387,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3493,16 +3413,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3552,7 +3472,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3570,7 +3490,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3581,14 +3501,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3607,16 +3527,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3666,7 +3586,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3684,7 +3604,7 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3695,10 +3615,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3724,10 +3644,10 @@
         <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3776,7 +3696,7 @@
         <v>115</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3805,13 +3725,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C19" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C19" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
@@ -3833,13 +3753,13 @@
         <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3890,7 +3810,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3899,7 +3819,7 @@
         <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>117</v>
@@ -3919,13 +3839,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C20" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>78</v>
@@ -3947,13 +3867,13 @@
         <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4004,7 +3924,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4013,7 +3933,7 @@
         <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>117</v>
@@ -4022,7 +3942,7 @@
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>78</v>
+        <v>191</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4033,13 +3953,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="C21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="C21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>78</v>
@@ -4061,13 +3981,13 @@
         <v>78</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4118,7 +4038,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4127,7 +4047,7 @@
         <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>117</v>
@@ -4147,13 +4067,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>78</v>
@@ -4163,7 +4083,7 @@
         <v>79</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4175,15 +4095,17 @@
         <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="L22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="N22" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4232,7 +4154,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4241,7 +4163,7 @@
         <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>117</v>
@@ -4261,13 +4183,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>78</v>
@@ -4289,15 +4211,17 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>215</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4346,7 +4270,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4355,7 +4279,7 @@
         <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>117</v>
@@ -4375,13 +4299,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>78</v>
@@ -4403,13 +4327,13 @@
         <v>78</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4460,7 +4384,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -4469,7 +4393,7 @@
         <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>117</v>
@@ -4489,13 +4413,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>78</v>
@@ -4517,13 +4441,13 @@
         <v>78</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4574,7 +4498,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -4583,7 +4507,7 @@
         <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>117</v>
@@ -4603,13 +4527,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>78</v>
@@ -4631,13 +4555,13 @@
         <v>78</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4688,7 +4612,7 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -4697,7 +4621,7 @@
         <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>117</v>
@@ -4717,13 +4641,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>78</v>
@@ -4745,13 +4669,13 @@
         <v>78</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4802,7 +4726,7 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -4811,7 +4735,7 @@
         <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>117</v>
@@ -4831,13 +4755,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>78</v>
@@ -4859,13 +4783,13 @@
         <v>78</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4916,7 +4840,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
@@ -4925,7 +4849,7 @@
         <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>117</v>
@@ -4945,13 +4869,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
@@ -4973,13 +4897,13 @@
         <v>78</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5030,7 +4954,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5039,7 +4963,7 @@
         <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>117</v>
@@ -5059,13 +4983,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>78</v>
@@ -5075,7 +4999,7 @@
         <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5087,13 +5011,13 @@
         <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>194</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5144,7 +5068,7 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5173,46 +5097,44 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
       </c>
@@ -5260,7 +5182,7 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>261</v>
+        <v>195</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5278,7 +5200,7 @@
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>78</v>
@@ -5289,12 +5211,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5303,7 +5227,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5312,21 +5236,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
       </c>
@@ -5374,7 +5296,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5383,62 +5305,66 @@
         <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>269</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>271</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5486,25 +5412,25 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>105</v>
+        <v>267</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>106</v>
+        <v>191</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>78</v>
@@ -5515,14 +5441,14 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -5538,21 +5464,21 @@
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O34" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5588,19 +5514,19 @@
         <v>78</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5609,30 +5535,30 @@
         <v>80</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>78</v>
+        <v>274</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>106</v>
+        <v>275</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>78</v>
+        <v>276</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>78</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5655,66 +5581,70 @@
         <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>169</v>
+        <v>279</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="O35" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="P35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q35" s="2"/>
-      <c r="R35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="Y35" s="2"/>
-      <c r="Z35" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5729,24 +5659,24 @@
         <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>192</v>
+        <v>285</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>78</v>
+        <v>287</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5754,10 +5684,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5769,26 +5699,26 @@
         <v>89</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>78</v>
+        <v>295</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>78</v>
@@ -5806,35 +5736,35 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AA36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>290</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
@@ -5843,24 +5773,24 @@
         <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5868,7 +5798,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>88</v>
@@ -5883,19 +5813,19 @@
         <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -5908,7 +5838,7 @@
         <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>297</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>78</v>
@@ -5944,7 +5874,7 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -5953,19 +5883,19 @@
         <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -5973,10 +5903,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5984,10 +5914,10 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -5996,21 +5926,23 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>311</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>312</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6022,7 +5954,7 @@
         <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>78</v>
@@ -6058,13 +5990,13 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
@@ -6073,13 +6005,13 @@
         <v>100</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>308</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>310</v>
+        <v>78</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6087,10 +6019,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6101,7 +6033,7 @@
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
@@ -6110,19 +6042,23 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6170,28 +6106,28 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>319</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>100</v>
+        <v>320</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6199,10 +6135,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6213,7 +6149,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6222,21 +6158,23 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
       </c>
@@ -6290,22 +6228,22 @@
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>331</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6313,10 +6251,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6333,32 +6271,28 @@
         <v>78</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
         <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>332</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q41" t="s" s="2">
-        <v>334</v>
-      </c>
+      <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
         <v>78</v>
       </c>
@@ -6402,7 +6336,7 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6417,24 +6351,24 @@
         <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>335</v>
+        <v>285</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>338</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,7 +6379,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6454,23 +6388,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>340</v>
+        <v>103</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>343</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6494,11 +6424,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y42" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z42" t="s" s="2">
-        <v>344</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6516,50 +6448,50 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>339</v>
+        <v>105</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>345</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>346</v>
+        <v>106</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6568,23 +6500,21 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>349</v>
+        <v>110</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>350</v>
+        <v>111</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6620,40 +6550,40 @@
         <v>78</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>348</v>
+        <v>116</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>267</v>
+        <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>106</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -6661,10 +6591,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6675,7 +6605,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6684,23 +6614,21 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>102</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6748,16 +6676,16 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>78</v>
+        <v>348</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>100</v>
@@ -6766,7 +6694,7 @@
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>354</v>
+        <v>191</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6777,10 +6705,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6791,7 +6719,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6800,23 +6728,21 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>362</v>
+        <v>130</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6840,13 +6766,11 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="Y45" s="2"/>
       <c r="Z45" t="s" s="2">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6864,28 +6788,28 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>367</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>368</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>369</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>370</v>
+        <v>191</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>371</v>
+        <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -6893,10 +6817,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6907,7 +6831,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6916,23 +6840,21 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>269</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
       </c>
@@ -6980,28 +6902,28 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>378</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>379</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>381</v>
+        <v>359</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7009,10 +6931,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7035,18 +6957,18 @@
         <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>384</v>
+        <v>102</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>78</v>
       </c>
@@ -7094,7 +7016,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7109,13 +7031,13 @@
         <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>335</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>388</v>
+        <v>191</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7123,10 +7045,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7149,19 +7071,19 @@
         <v>78</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7210,7 +7132,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7228,7 +7150,7 @@
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
@@ -7239,10 +7161,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>396</v>
+        <v>372</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7351,10 +7273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7465,14 +7387,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7494,16 +7416,16 @@
         <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>401</v>
+        <v>377</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>112</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
@@ -7552,7 +7474,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7570,7 +7492,7 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7581,10 +7503,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7607,17 +7529,17 @@
         <v>78</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7642,13 +7564,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7666,7 +7588,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -7684,7 +7606,7 @@
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
@@ -7695,10 +7617,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7721,17 +7643,17 @@
         <v>78</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7780,7 +7702,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -7795,10 +7717,10 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
@@ -7809,10 +7731,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7835,17 +7757,17 @@
         <v>78</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>362</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>418</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7894,7 +7816,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -7909,10 +7831,10 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
@@ -7923,10 +7845,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7949,17 +7871,17 @@
         <v>78</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8008,7 +7930,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>423</v>
+        <v>399</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8023,10 +7945,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
@@ -8037,10 +7959,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8063,17 +7985,17 @@
         <v>78</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>433</v>
+        <v>409</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8122,7 +8044,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T10:29:57+00:00</t>
+    <t>2026-01-29T08:32:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.2.0-ballot</t>
+    <t>2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:32:45+00:00</t>
+    <t>2026-01-29T08:34:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>Interop'Santé (http://interopsante.org/)</t>
+    <t>Interop'Santé (http://interopsante.org)</t>
   </si>
   <si>
     <t>InteropSanté (fhir@interopsante.org(Work))</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -630,7 +630,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -701,7 +701,7 @@
     <t>members</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-member|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -717,7 +717,7 @@
     <t>discplineEquipement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-discipline-equipement|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -733,7 +733,7 @@
     <t>typeActivite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-type-activite|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -749,7 +749,7 @@
     <t>champActivite</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-champ-activite|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -765,7 +765,7 @@
     <t>placeHebergement</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-place-hebergement-theorique|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -781,7 +781,7 @@
     <t>externe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-externe|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -797,7 +797,7 @@
     <t>indicateur</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-uf-indicateur|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -813,7 +813,7 @@
     <t>demandeuseActe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-demandeuse-acte|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -829,7 +829,7 @@
     <t>executanteActe</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte|2.2.0-ballot}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-executante-acte|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -951,7 +951,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>No equivalent in v2</t>
@@ -1006,7 +1006,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1042,7 +1042,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.2.0-ballot-2}
 </t>
   </si>
   <si>
@@ -1078,7 +1078,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.2.0-ballot-2|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-etablissement|2.2.0-ballot-2)
 </t>
   </si>
   <si>
@@ -1640,7 +1640,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="142.28515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="145.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1655,7 +1655,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="59.30859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:34:51+00:00</t>
+    <t>2026-01-29T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
+++ b/main/ig/StructureDefinition-fr-core-organization-uf.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-29T08:41:18+00:00</t>
+    <t>2026-01-30T10:25:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
